--- a/ems/src/main/webapp/excel/import/员工导入模板.xlsx
+++ b/ems/src/main/webapp/excel/import/员工导入模板.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>员工姓名</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>员工电话</t>
-  </si>
-  <si>
-    <t>班组</t>
-  </si>
-  <si>
-    <t>工种</t>
   </si>
   <si>
     <t>工资银行</t>
@@ -1296,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1307,11 +1301,11 @@
     <col min="3" max="3" width="34.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.25" style="1" customWidth="1"/>
-    <col min="6" max="11" width="26.25" style="1" customWidth="1"/>
-    <col min="12" max="14" width="32.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="37" style="1" customWidth="1"/>
-    <col min="16" max="16" width="32.75" style="1" customWidth="1"/>
-    <col min="17" max="256" width="9.25" style="1" customWidth="1"/>
+    <col min="6" max="9" width="26.25" style="1" customWidth="1"/>
+    <col min="10" max="12" width="32.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="37" style="1" customWidth="1"/>
+    <col min="14" max="14" width="32.75" style="1" customWidth="1"/>
+    <col min="15" max="256" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1">
@@ -1357,34 +1351,32 @@
       <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" ht="14.45" customHeight="1">
       <c r="A2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="E2" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="F2" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="G2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" t="s" s="2">
         <v>22</v>
       </c>
@@ -1402,12 +1394,6 @@
       </c>
       <c r="N2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="3" ht="14.45" customHeight="1">
@@ -1425,8 +1411,6 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
     </row>
     <row r="4" ht="14.45" customHeight="1">
       <c r="A4" s="4"/>
@@ -1443,8 +1427,6 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
     </row>
     <row r="5" ht="14.45" customHeight="1">
       <c r="A5" s="4"/>
@@ -1461,8 +1443,6 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
     </row>
     <row r="6" ht="14.45" customHeight="1">
       <c r="A6" s="4"/>
@@ -1479,8 +1459,6 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
     </row>
     <row r="7" ht="14.45" customHeight="1">
       <c r="A7" s="4"/>
@@ -1497,8 +1475,6 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
     </row>
     <row r="8" ht="14.45" customHeight="1">
       <c r="A8" s="4"/>
@@ -1515,8 +1491,6 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
     </row>
     <row r="9" ht="14.45" customHeight="1">
       <c r="A9" s="4"/>
@@ -1533,8 +1507,6 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
     </row>
     <row r="10" ht="14.45" customHeight="1">
       <c r="A10" s="4"/>
@@ -1551,8 +1523,6 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
